--- a/발표자료 및 문서/[KD1]6조_WBS_업빛투.xlsx
+++ b/발표자료 및 문서/[KD1]6조_WBS_업빛투.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="122">
   <si>
     <t>[K-Digital] 기업 요구사항 기반의 문제 해결 프로젝트</t>
   </si>
@@ -209,10 +209,13 @@
     <t>중간보고 및 확인</t>
   </si>
   <si>
-    <t>미정</t>
+    <t>정길종, 채길호</t>
   </si>
   <si>
     <t>종료보고 및 확인</t>
+  </si>
+  <si>
+    <t>김형림</t>
   </si>
   <si>
     <t>프로젝트 수행</t>
@@ -1674,7 +1677,7 @@
         <v>55</v>
       </c>
       <c r="C9" s="39">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D9" s="40" t="str">
         <f t="shared" si="1"/>
@@ -1745,7 +1748,7 @@
         <v>51</v>
       </c>
       <c r="H10" s="43" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I10" s="61"/>
       <c r="J10" s="49"/>
@@ -1781,10 +1784,10 @@
     </row>
     <row r="11" ht="17.25" customHeight="1">
       <c r="A11" s="37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B11" s="63" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C11" s="64"/>
       <c r="D11" s="40"/>
@@ -1827,7 +1830,7 @@
     <row r="12" ht="17.25" customHeight="1">
       <c r="A12" s="21"/>
       <c r="B12" s="68" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C12" s="39">
         <v>1.0</v>
@@ -1883,7 +1886,7 @@
     <row r="13" ht="17.25" customHeight="1">
       <c r="A13" s="21"/>
       <c r="B13" s="68" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C13" s="39">
         <v>1.0</v>
@@ -1939,7 +1942,7 @@
     <row r="14" ht="17.25" customHeight="1">
       <c r="A14" s="21"/>
       <c r="B14" s="71" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C14" s="64"/>
       <c r="D14" s="40"/>
@@ -1982,7 +1985,7 @@
     <row r="15" ht="17.25" customHeight="1">
       <c r="A15" s="21"/>
       <c r="B15" s="72" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C15" s="39">
         <v>1.0</v>
@@ -1998,7 +2001,7 @@
         <v>44442.0</v>
       </c>
       <c r="G15" s="42" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H15" s="43" t="s">
         <v>52</v>
@@ -2038,7 +2041,7 @@
     <row r="16" ht="17.25" customHeight="1">
       <c r="A16" s="21"/>
       <c r="B16" s="72" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C16" s="39">
         <v>1.0</v>
@@ -2054,7 +2057,7 @@
         <v>44446.0</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H16" s="43" t="s">
         <v>52</v>
@@ -2094,7 +2097,7 @@
     <row r="17" ht="17.25" customHeight="1">
       <c r="A17" s="21"/>
       <c r="B17" s="72" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C17" s="39">
         <v>1.0</v>
@@ -2110,7 +2113,7 @@
         <v>44448.0</v>
       </c>
       <c r="G17" s="42" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H17" s="43" t="s">
         <v>52</v>
@@ -2150,7 +2153,7 @@
     <row r="18" ht="17.25" customHeight="1">
       <c r="A18" s="21"/>
       <c r="B18" s="71" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C18" s="64"/>
       <c r="D18" s="40"/>
@@ -2193,7 +2196,7 @@
     <row r="19" ht="17.25" customHeight="1">
       <c r="A19" s="21"/>
       <c r="B19" s="72" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C19" s="39">
         <v>1.0</v>
@@ -2209,10 +2212,10 @@
         <v>44442.0</v>
       </c>
       <c r="G19" s="42" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H19" s="43" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I19" s="61"/>
       <c r="J19" s="49"/>
@@ -2249,7 +2252,7 @@
     <row r="20" ht="17.25" customHeight="1">
       <c r="A20" s="21"/>
       <c r="B20" s="73" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C20" s="74">
         <v>0.0</v>
@@ -2265,7 +2268,7 @@
         <v>44442.0</v>
       </c>
       <c r="G20" s="77" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H20" s="78" t="s">
         <v>54</v>
@@ -2305,7 +2308,7 @@
     <row r="21" ht="17.25" customHeight="1">
       <c r="A21" s="21"/>
       <c r="B21" s="73" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C21" s="74">
         <v>0.0</v>
@@ -2321,7 +2324,7 @@
         <v>44442.0</v>
       </c>
       <c r="G21" s="77" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H21" s="78" t="s">
         <v>54</v>
@@ -2361,7 +2364,7 @@
     <row r="22" ht="17.25" customHeight="1">
       <c r="A22" s="21"/>
       <c r="B22" s="72" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C22" s="39">
         <v>1.0</v>
@@ -2377,7 +2380,7 @@
         <v>44442.0</v>
       </c>
       <c r="G22" s="42" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H22" s="43" t="s">
         <v>54</v>
@@ -2417,10 +2420,10 @@
     <row r="23" ht="17.25" customHeight="1">
       <c r="A23" s="21"/>
       <c r="B23" s="72" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C23" s="39">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="D23" s="40" t="str">
         <f t="shared" si="4"/>
@@ -2433,7 +2436,7 @@
         <v>44449.0</v>
       </c>
       <c r="G23" s="42" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H23" s="43" t="s">
         <v>54</v>
@@ -2473,7 +2476,7 @@
     <row r="24" ht="17.25" customHeight="1">
       <c r="A24" s="21"/>
       <c r="B24" s="72" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C24" s="39">
         <v>1.0</v>
@@ -2489,7 +2492,7 @@
         <v>44452.0</v>
       </c>
       <c r="G24" s="42" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H24" s="43" t="s">
         <v>54</v>
@@ -2529,7 +2532,7 @@
     <row r="25" ht="17.25" customHeight="1">
       <c r="A25" s="21"/>
       <c r="B25" s="72" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C25" s="39">
         <v>1.0</v>
@@ -2545,7 +2548,7 @@
         <v>44452.0</v>
       </c>
       <c r="G25" s="42" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H25" s="43" t="s">
         <v>54</v>
@@ -2585,7 +2588,7 @@
     <row r="26" ht="17.25" customHeight="1">
       <c r="A26" s="21"/>
       <c r="B26" s="71" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C26" s="64"/>
       <c r="D26" s="40"/>
@@ -2628,7 +2631,7 @@
     <row r="27" ht="17.25" customHeight="1">
       <c r="A27" s="21"/>
       <c r="B27" s="72" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C27" s="39">
         <v>1.0</v>
@@ -2684,7 +2687,7 @@
     <row r="28" ht="17.25" customHeight="1">
       <c r="A28" s="21"/>
       <c r="B28" s="72" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C28" s="39">
         <v>1.0</v>
@@ -2700,10 +2703,10 @@
         <v>44456.0</v>
       </c>
       <c r="G28" s="42" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H28" s="43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I28" s="61"/>
       <c r="J28" s="49"/>
@@ -2740,7 +2743,7 @@
     <row r="29" ht="17.25" customHeight="1">
       <c r="A29" s="21"/>
       <c r="B29" s="72" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C29" s="39">
         <v>1.0</v>
@@ -2756,10 +2759,10 @@
         <v>44456.0</v>
       </c>
       <c r="G29" s="42" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H29" s="43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I29" s="61"/>
       <c r="J29" s="49"/>
@@ -2796,7 +2799,7 @@
     <row r="30" ht="17.25" customHeight="1">
       <c r="A30" s="21"/>
       <c r="B30" s="72" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C30" s="39">
         <v>1.0</v>
@@ -2812,10 +2815,10 @@
         <v>44456.0</v>
       </c>
       <c r="G30" s="42" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H30" s="43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I30" s="61"/>
       <c r="J30" s="49"/>
@@ -2852,7 +2855,7 @@
     <row r="31" ht="17.25" customHeight="1">
       <c r="A31" s="21"/>
       <c r="B31" s="71" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C31" s="64"/>
       <c r="D31" s="40"/>
@@ -2895,7 +2898,7 @@
     <row r="32" ht="17.25" customHeight="1">
       <c r="A32" s="21"/>
       <c r="B32" s="72" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C32" s="39">
         <v>1.0</v>
@@ -2911,10 +2914,10 @@
         <v>44456.0</v>
       </c>
       <c r="G32" s="42" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H32" s="43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I32" s="61"/>
       <c r="J32" s="49"/>
@@ -2951,7 +2954,7 @@
     <row r="33" ht="17.25" customHeight="1">
       <c r="A33" s="21"/>
       <c r="B33" s="72" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C33" s="39">
         <v>1.0</v>
@@ -2967,10 +2970,10 @@
         <v>44456.0</v>
       </c>
       <c r="G33" s="42" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H33" s="43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I33" s="61"/>
       <c r="J33" s="49"/>
@@ -3007,7 +3010,7 @@
     <row r="34" ht="17.25" customHeight="1">
       <c r="A34" s="21"/>
       <c r="B34" s="72" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C34" s="39">
         <v>1.0</v>
@@ -3023,10 +3026,10 @@
         <v>44456.0</v>
       </c>
       <c r="G34" s="42" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H34" s="43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I34" s="61"/>
       <c r="J34" s="49"/>
@@ -3063,7 +3066,7 @@
     <row r="35" ht="17.25" customHeight="1">
       <c r="A35" s="21"/>
       <c r="B35" s="72" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C35" s="39">
         <v>1.0</v>
@@ -3079,10 +3082,10 @@
         <v>44456.0</v>
       </c>
       <c r="G35" s="42" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H35" s="43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I35" s="61"/>
       <c r="J35" s="49"/>
@@ -3119,7 +3122,7 @@
     <row r="36" ht="17.25" customHeight="1">
       <c r="A36" s="21"/>
       <c r="B36" s="72" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C36" s="39">
         <v>1.0</v>
@@ -3135,10 +3138,10 @@
         <v>44456.0</v>
       </c>
       <c r="G36" s="42" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H36" s="43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I36" s="61"/>
       <c r="J36" s="49"/>
@@ -3175,7 +3178,7 @@
     <row r="37" ht="17.25" customHeight="1">
       <c r="A37" s="21"/>
       <c r="B37" s="72" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C37" s="39">
         <v>1.0</v>
@@ -3191,10 +3194,10 @@
         <v>44456.0</v>
       </c>
       <c r="G37" s="42" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H37" s="43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I37" s="61"/>
       <c r="J37" s="49"/>
@@ -3231,7 +3234,7 @@
     <row r="38" ht="17.25" customHeight="1">
       <c r="A38" s="21"/>
       <c r="B38" s="72" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C38" s="39">
         <v>1.0</v>
@@ -3247,10 +3250,10 @@
         <v>44463.0</v>
       </c>
       <c r="G38" s="42" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H38" s="43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I38" s="61"/>
       <c r="J38" s="49"/>
@@ -3287,7 +3290,7 @@
     <row r="39" ht="17.25" customHeight="1">
       <c r="A39" s="21"/>
       <c r="B39" s="72" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C39" s="39">
         <v>1.0</v>
@@ -3303,10 +3306,10 @@
         <v>44463.0</v>
       </c>
       <c r="G39" s="42" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H39" s="43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I39" s="61"/>
       <c r="J39" s="49"/>
@@ -3343,7 +3346,7 @@
     <row r="40" ht="17.25" customHeight="1">
       <c r="A40" s="21"/>
       <c r="B40" s="72" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C40" s="39">
         <v>1.0</v>
@@ -3359,10 +3362,10 @@
         <v>44463.0</v>
       </c>
       <c r="G40" s="42" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H40" s="43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I40" s="61"/>
       <c r="J40" s="49"/>
@@ -3399,7 +3402,7 @@
     <row r="41" ht="17.25" customHeight="1">
       <c r="A41" s="21"/>
       <c r="B41" s="72" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C41" s="39">
         <v>1.0</v>
@@ -3415,10 +3418,10 @@
         <v>44456.0</v>
       </c>
       <c r="G41" s="42" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H41" s="43" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I41" s="61"/>
       <c r="J41" s="49"/>
@@ -3455,7 +3458,7 @@
     <row r="42" ht="17.25" customHeight="1">
       <c r="A42" s="21"/>
       <c r="B42" s="72" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C42" s="39">
         <v>1.0</v>
@@ -3471,10 +3474,10 @@
         <v>44456.0</v>
       </c>
       <c r="G42" s="42" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H42" s="43" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I42" s="61"/>
       <c r="J42" s="49"/>
@@ -3511,7 +3514,7 @@
     <row r="43" ht="17.25" customHeight="1">
       <c r="A43" s="21"/>
       <c r="B43" s="63" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C43" s="39"/>
       <c r="D43" s="40"/>
@@ -3554,10 +3557,10 @@
     <row r="44" ht="17.25" customHeight="1">
       <c r="A44" s="21"/>
       <c r="B44" s="72" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C44" s="39">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D44" s="40" t="str">
         <f>datedif(E44,F44,"d")+1-3-6-1&amp;"일"</f>
@@ -3570,10 +3573,10 @@
         <v>44467.0</v>
       </c>
       <c r="G44" s="42" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H44" s="43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I44" s="61"/>
       <c r="J44" s="49"/>
@@ -3610,7 +3613,7 @@
     <row r="45" ht="17.25" customHeight="1">
       <c r="A45" s="21"/>
       <c r="B45" s="72" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C45" s="39">
         <v>1.0</v>
@@ -3626,10 +3629,10 @@
         <v>44467.0</v>
       </c>
       <c r="G45" s="42" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H45" s="43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I45" s="61"/>
       <c r="J45" s="49"/>
@@ -3666,7 +3669,7 @@
     <row r="46" ht="17.25" customHeight="1">
       <c r="A46" s="21"/>
       <c r="B46" s="72" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C46" s="39">
         <v>1.0</v>
@@ -3682,10 +3685,10 @@
         <v>44467.0</v>
       </c>
       <c r="G46" s="42" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H46" s="43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I46" s="61"/>
       <c r="J46" s="49"/>
@@ -3722,7 +3725,7 @@
     <row r="47" ht="17.25" customHeight="1">
       <c r="A47" s="21"/>
       <c r="B47" s="72" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C47" s="39">
         <v>1.0</v>
@@ -3738,10 +3741,10 @@
         <v>44467.0</v>
       </c>
       <c r="G47" s="42" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H47" s="43" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I47" s="61"/>
       <c r="J47" s="49"/>
@@ -3778,7 +3781,7 @@
     <row r="48" ht="17.25" customHeight="1">
       <c r="A48" s="21"/>
       <c r="B48" s="72" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C48" s="39">
         <v>1.0</v>
@@ -3794,10 +3797,10 @@
         <v>44467.0</v>
       </c>
       <c r="G48" s="42" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H48" s="43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I48" s="61"/>
       <c r="J48" s="49"/>
@@ -3834,10 +3837,10 @@
     <row r="49" ht="17.25" customHeight="1">
       <c r="A49" s="21"/>
       <c r="B49" s="72" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C49" s="39">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D49" s="40" t="str">
         <f t="shared" ref="D49:D51" si="11">datedif(E49,F49,"d")+1-3-4-1&amp;"일"</f>
@@ -3850,10 +3853,10 @@
         <v>44467.0</v>
       </c>
       <c r="G49" s="42" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H49" s="43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I49" s="61"/>
       <c r="J49" s="49"/>
@@ -3890,7 +3893,7 @@
     <row r="50" ht="17.25" customHeight="1">
       <c r="A50" s="21"/>
       <c r="B50" s="72" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C50" s="39">
         <v>1.0</v>
@@ -3906,10 +3909,10 @@
         <v>44467.0</v>
       </c>
       <c r="G50" s="42" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H50" s="43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I50" s="61"/>
       <c r="J50" s="49"/>
@@ -3946,7 +3949,7 @@
     <row r="51" ht="17.25" customHeight="1">
       <c r="A51" s="21"/>
       <c r="B51" s="72" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C51" s="39">
         <v>1.0</v>
@@ -3962,10 +3965,10 @@
         <v>44467.0</v>
       </c>
       <c r="G51" s="42" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H51" s="43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I51" s="61"/>
       <c r="J51" s="49"/>
@@ -4002,7 +4005,7 @@
     <row r="52" ht="17.25" customHeight="1">
       <c r="A52" s="21"/>
       <c r="B52" s="72" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C52" s="39">
         <v>1.0</v>
@@ -4018,10 +4021,10 @@
         <v>44467.0</v>
       </c>
       <c r="G52" s="42" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H52" s="43" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I52" s="61"/>
       <c r="J52" s="49"/>
@@ -4058,7 +4061,7 @@
     <row r="53" ht="17.25" customHeight="1">
       <c r="A53" s="21"/>
       <c r="B53" s="72" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C53" s="39">
         <v>1.0</v>
@@ -4074,10 +4077,10 @@
         <v>44467.0</v>
       </c>
       <c r="G53" s="42" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H53" s="43" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I53" s="61"/>
       <c r="J53" s="49"/>
@@ -4114,7 +4117,7 @@
     <row r="54" ht="17.25" customHeight="1">
       <c r="A54" s="21"/>
       <c r="B54" s="72" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C54" s="39">
         <v>1.0</v>
@@ -4130,10 +4133,10 @@
         <v>44467.0</v>
       </c>
       <c r="G54" s="42" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H54" s="43" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I54" s="61"/>
       <c r="J54" s="49"/>
@@ -4170,7 +4173,7 @@
     <row r="55" ht="17.25" customHeight="1">
       <c r="A55" s="21"/>
       <c r="B55" s="72" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C55" s="39">
         <v>1.0</v>
@@ -4186,10 +4189,10 @@
         <v>44467.0</v>
       </c>
       <c r="G55" s="42" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H55" s="43" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I55" s="61"/>
       <c r="J55" s="49"/>
@@ -4226,10 +4229,10 @@
     <row r="56" ht="17.25" customHeight="1">
       <c r="A56" s="21"/>
       <c r="B56" s="72" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C56" s="39">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="D56" s="40" t="str">
         <f>datedif(E56,F56,"d")+1-3-6&amp;"일"</f>
@@ -4242,10 +4245,10 @@
         <v>44469.0</v>
       </c>
       <c r="G56" s="42" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H56" s="43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I56" s="61"/>
       <c r="J56" s="49"/>
@@ -4282,7 +4285,7 @@
     <row r="57" ht="17.25" customHeight="1">
       <c r="A57" s="21"/>
       <c r="B57" s="72" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C57" s="39">
         <v>1.0</v>
@@ -4298,10 +4301,10 @@
         <v>44469.0</v>
       </c>
       <c r="G57" s="42" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H57" s="43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I57" s="61"/>
       <c r="J57" s="49"/>
@@ -4338,10 +4341,10 @@
     <row r="58" ht="17.25" customHeight="1">
       <c r="A58" s="21"/>
       <c r="B58" s="72" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C58" s="39">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D58" s="40" t="str">
         <f t="shared" si="13"/>
@@ -4354,10 +4357,10 @@
         <v>44469.0</v>
       </c>
       <c r="G58" s="42" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H58" s="43" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I58" s="61"/>
       <c r="J58" s="49"/>
@@ -4394,7 +4397,7 @@
     <row r="59" ht="17.25" customHeight="1">
       <c r="A59" s="21"/>
       <c r="B59" s="63" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C59" s="39"/>
       <c r="D59" s="40"/>
@@ -4437,7 +4440,7 @@
     <row r="60" ht="17.25" customHeight="1">
       <c r="A60" s="21"/>
       <c r="B60" s="72" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C60" s="39">
         <v>1.0</v>
@@ -4453,10 +4456,10 @@
         <v>44470.0</v>
       </c>
       <c r="G60" s="42" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H60" s="43" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I60" s="61"/>
       <c r="J60" s="49"/>
@@ -4493,7 +4496,7 @@
     <row r="61" ht="17.25" customHeight="1">
       <c r="A61" s="21"/>
       <c r="B61" s="72" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C61" s="39">
         <v>1.0</v>
@@ -4509,10 +4512,10 @@
         <v>44470.0</v>
       </c>
       <c r="G61" s="42" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H61" s="43" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I61" s="61"/>
       <c r="J61" s="49"/>
@@ -4549,7 +4552,7 @@
     <row r="62" ht="17.25" customHeight="1">
       <c r="A62" s="21"/>
       <c r="B62" s="72" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C62" s="39">
         <v>1.0</v>
@@ -4565,10 +4568,10 @@
         <v>44470.0</v>
       </c>
       <c r="G62" s="42" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H62" s="43" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I62" s="61"/>
       <c r="J62" s="49"/>
@@ -4605,7 +4608,7 @@
     <row r="63" ht="17.25" customHeight="1">
       <c r="A63" s="21"/>
       <c r="B63" s="72" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C63" s="39">
         <v>1.0</v>
@@ -4621,10 +4624,10 @@
         <v>44470.0</v>
       </c>
       <c r="G63" s="42" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H63" s="43" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I63" s="61"/>
       <c r="J63" s="49"/>
@@ -4661,7 +4664,7 @@
     <row r="64" ht="17.25" customHeight="1">
       <c r="A64" s="21"/>
       <c r="B64" s="71" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C64" s="39"/>
       <c r="D64" s="40"/>
@@ -4704,7 +4707,7 @@
     <row r="65" ht="17.25" customHeight="1">
       <c r="A65" s="21"/>
       <c r="B65" s="72" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C65" s="39">
         <v>1.0</v>
@@ -4720,7 +4723,7 @@
         <v>44446.0</v>
       </c>
       <c r="G65" s="42" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H65" s="43" t="s">
         <v>54</v>
@@ -4760,10 +4763,10 @@
     <row r="66" ht="17.25" customHeight="1">
       <c r="A66" s="21"/>
       <c r="B66" s="72" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C66" s="39">
-        <v>0.8</v>
+        <v>1.0</v>
       </c>
       <c r="D66" s="40" t="str">
         <f t="shared" ref="D66:D67" si="15">datedif(E66,F66,"d")+1-3-6-1&amp;"일"</f>
@@ -4776,10 +4779,10 @@
         <v>44470.0</v>
       </c>
       <c r="G66" s="42" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H66" s="43" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I66" s="61"/>
       <c r="J66" s="49"/>
@@ -4816,10 +4819,10 @@
     <row r="67" ht="17.25" customHeight="1">
       <c r="A67" s="21"/>
       <c r="B67" s="85" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C67" s="39">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="D67" s="40" t="str">
         <f t="shared" si="15"/>
@@ -4832,10 +4835,10 @@
         <v>44470.0</v>
       </c>
       <c r="G67" s="42" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H67" s="43" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I67" s="61"/>
       <c r="J67" s="49"/>
@@ -4872,10 +4875,10 @@
     <row r="68" ht="17.25" customHeight="1">
       <c r="A68" s="21"/>
       <c r="B68" s="72" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C68" s="39">
-        <v>0.7</v>
+        <v>1.0</v>
       </c>
       <c r="D68" s="40" t="str">
         <f>datedif(E68,F68,"d")+1&amp;"일"</f>
@@ -4928,7 +4931,7 @@
     <row r="69" ht="17.25" customHeight="1">
       <c r="A69" s="21"/>
       <c r="B69" s="63" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C69" s="64"/>
       <c r="D69" s="40"/>
@@ -4971,10 +4974,10 @@
     <row r="70" ht="17.25" customHeight="1">
       <c r="A70" s="21"/>
       <c r="B70" s="72" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C70" s="39">
-        <v>0.7</v>
+        <v>1.0</v>
       </c>
       <c r="D70" s="40" t="str">
         <f>datedif(E70,F70,"d")+1&amp;"일"</f>
@@ -5027,10 +5030,10 @@
     <row r="71" ht="17.25" customHeight="1">
       <c r="A71" s="21"/>
       <c r="B71" s="72" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C71" s="39">
-        <v>0.7</v>
+        <v>1.0</v>
       </c>
       <c r="D71" s="40" t="s">
         <v>26</v>
@@ -5082,7 +5085,7 @@
     <row r="72" ht="17.25" customHeight="1">
       <c r="A72" s="30"/>
       <c r="B72" s="72" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C72" s="39">
         <v>0.0</v>
@@ -5101,7 +5104,7 @@
         <v>51</v>
       </c>
       <c r="H72" s="43" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I72" s="61"/>
       <c r="J72" s="49"/>
